--- a/JSeM_Toritate_20160107.xlsx
+++ b/JSeM_Toritate_20160107.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="731">
   <si>
     <t>answer</t>
     <phoneticPr fontId="1"/>
@@ -6714,6 +6714,1000 @@
   </si>
   <si>
     <t>Toritate, -made (toritate particle), negation</t>
+  </si>
+  <si>
+    <t>《「は」とfloating quantifier》</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生が五人は来る。</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来る学生が少なくとも五人いる。</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「数量詞＋とりたて詞」が「〜以上」を含意する例。参考：中村ちどり (2008) 「日本の取り立て助詞と限定詞・名詞句フォーカス」、『言語と文化・文学の諸相』, pp.263-274、岩手大学人文社会科学部。</t>
+    <rPh sb="1" eb="3">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガンイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文学部の女子学生が五人は来る。</t>
+    <rPh sb="0" eb="3">
+      <t>ブンガクブ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ジョシガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女子学生が五人は来る。</t>
+    <rPh sb="0" eb="4">
+      <t>ジョシガクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>《「は」とfloating quantifier、monotonicity》</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考：中村ちどり (2008) 「日本の取り立て助詞と限定詞・名詞句フォーカス」、『言語と文化・文学の諸相』, pp.263-274、岩手大学人文社会科学部。</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>《「は」とfloating quantifier、否定》</t>
+    <rPh sb="25" eb="27">
+      <t>ヒテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は高級車を三台は持っている。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎が持っている高級車が少なくとも三台ある。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎はドイツ製の高級車を三台は持っている。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「否定＞数量詞＋は」の解釈。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「数量詞＋は＞否定」の解釈。参考：中村ちどり (2008) 「日本の取り立て助詞と限定詞・名詞句フォーカス」、『言語と文化・文学の諸相』, pp.263-274、岩手大学人文社会科学部。</t>
+    <rPh sb="1" eb="3">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>《「も」とfloating quantifier》</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>《「も」とfloating quantifier、monotonicity》</t>
+  </si>
+  <si>
+    <t>《「も」とfloating quantifier、否定》</t>
+    <rPh sb="25" eb="27">
+      <t>ヒテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生が五人も来る。</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文学部の学生が五人も来る。</t>
+    <rPh sb="0" eb="3">
+      <t>ブンガクブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎の結婚式には、招待客が五人は来ていなかった。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケッコンシキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウタイキャク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎の結婚式に来ていなかった招待客が少なくとも五人いる。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケッコンシキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショウタイキャク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>スクナクトオ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゴニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のライブには、観客が十人はいなかった。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンキャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のライブにいた観客は十人未満だ。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンキャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎はメールを二百通は読んでいない。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニヒャクツウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎が読んでいないメールが少なくとも二百通ある。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニヒャクツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生が五人来る。</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゴニンク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎の結婚式には、招待客が五人も来ていなかった。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケッコンシキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウタイキャク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のライブには、観客が十人もいなかった。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンキャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「数量詞＋も＞否定」の解釈。参考：中村ちどり (2008) 「日本の取り立て助詞と限定詞・名詞句フォーカス」、『言語と文化・文学の諸相』, pp.263-274、岩手大学人文社会科学部。</t>
+    <rPh sb="1" eb="3">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「否定＞数量詞＋も」の解釈。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎の結婚式に来ていなかった招待客が五人いる。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケッコンシキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショウタイキャク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は「今日のライブには、観客が百人もいた」と言った。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンキャク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒャクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「数量詞＋も」の表す、数が多いことに対する意外性。</t>
+    <rPh sb="1" eb="3">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>イガイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は、今日のライブにいた観客の数が多いと思っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンキャク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は「太郎の結婚式には、招待客が五人も来ていなかった」と言った。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケッコンシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は、太郎の結婚式に来ていなかった招待客の数が多いと思っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケッコンシキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショウタイキャク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は「今日のライブには、観客が十人もいなかった」と言った。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンキャク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒャクニン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は、今日のライブにいた観客の数が少ないと思っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンキャク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「否定＞数量詞＋も」の解釈。「数量詞＋も」の表す数が少ないことに対する意外性。</t>
+    <rPh sb="15" eb="17">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>イガイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「数量詞＋も＞否定」の解釈。「数量詞＋も」の表す、数が多いことに対する意外性。</t>
+    <rPh sb="1" eb="3">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は高級車を三台も持っている。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は高級車を三台持っている。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎はドイツ製の高級車を三台も持っている。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎はメールを二百通も読んでいない。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニヒャクツウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎が読んでいないメールが二百通ある。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニヒャクツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子が「太郎は高級車を三台も持っている」と言った。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は、太郎が持っている高級車の数が多いと思っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は「太郎はメールを二百通も読んでいない」と言った。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニヒャクツウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は、太郎が読んでいないメールの数が多いと思っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は車を二台は持っていない。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎が持っている車は二台未満である。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コウキュウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は車を二台も持っていない。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎が持っている車の数は二台未満だ。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は「太郎は車を二台も持っていない」と言った。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は、太郎が持っている車の数が少ないと思っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toritate, -mo (toritate particle), floating quantifier</t>
+  </si>
+  <si>
+    <t>Toritate, -mo (toritate particle), floating quantifier, negation</t>
+  </si>
+  <si>
+    <t>Toritate, -wa (toritate particle), floating quantifier</t>
+  </si>
+  <si>
+    <t>Toritate, -wa (toritate particle), floating quantifier, negation</t>
+  </si>
+  <si>
+    <t>《「までは」と否定のスコープ》</t>
+    <rPh sb="7" eb="9">
+      <t>ヒテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ない＞までは」の解釈。参考：茂木俊伸 (1999)「とりたて詞「まで」「さえ」について―否定との関わりから―」『日本語と日本文学』28，pp.(左)27-36，筑波大学国語国文学会．</t>
+    <rPh sb="9" eb="11">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トシノブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は花子までは評価していない。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は太郎にまではチョコレートをあげなかった。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6806,8 +7800,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="783">
+  <cellStyleXfs count="841">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7627,7 +8679,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="783">
+  <cellStyles count="841">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -8019,6 +9071,35 @@
     <cellStyle name="ハイパーリンク" xfId="777" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="779" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="839" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -8411,6 +9492,35 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="778" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="780" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="840" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -8739,11 +9849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K356"/>
+  <dimension ref="A1:K380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F336" sqref="F336"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A378" sqref="A378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -16730,6 +17840,486 @@
         <v>657</v>
       </c>
     </row>
+    <row r="357" spans="1:8" ht="65">
+      <c r="A357" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="65">
+      <c r="A358" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="65">
+      <c r="A359" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="50">
+      <c r="A360" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="65">
+      <c r="A361" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="50">
+      <c r="A362" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="65">
+      <c r="A363" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="50">
+      <c r="A364" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="65">
+      <c r="A365" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="50">
+      <c r="A366" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="50">
+      <c r="A367" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="50">
+      <c r="A368" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="50">
+      <c r="A369" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="65">
+      <c r="A370" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="35">
+      <c r="A371" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="35">
+      <c r="A372" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="35">
+      <c r="A373" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="35">
+      <c r="A374" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="35">
+      <c r="A375" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="50">
+      <c r="A376" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="65">
+      <c r="A377" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="35">
+      <c r="A378" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="35">
+      <c r="A379" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="35">
+      <c r="A380" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>

--- a/JSeM_Toritate_20160107.xlsx
+++ b/JSeM_Toritate_20160107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26518"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5060" yWindow="540" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="749">
   <si>
     <t>answer</t>
     <phoneticPr fontId="1"/>
@@ -5004,34 +5004,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「〜以外に、〜であるようなNが存在する」との言い換え。ただし、Nが何であるかは文脈によって変わる。ここでは「雨が降るというのは、出来事である」という前提をaccomodateすると考え、inference_typeをpresupposition accomodationとした。また、「N以外はVした」には「NはVしなかった」というGCIがあるため、Hの解釈によっては判断が揺れる。</t>
-    <rPh sb="15" eb="17">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>アメ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>デキゴト</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>カイシャク</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>ユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>雨が降り出すということの他に、何か出来事があった。</t>
     <rPh sb="0" eb="1">
       <t>アメ</t>
@@ -5086,53 +5058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「〜の他に、〜であるようなNが存在する」との言い換え。ただし、Nが何であるかは文脈によって変わる。ここでは「就職を世話するというのは、行為である」という前提をaccomodateすると考え、inference_typeをpresupposition accomodationとした。</t>
-    <rPh sb="3" eb="4">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュウショク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>セワ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>コウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「〜以外に、〜であるようなNが存在する」との言い換え。ただし、Nが何であるかは文脈によって変わる。ここでは「就職を世話するのは行為である」という前提をaccomodateすると考え、inference_typeをpresupposition accomodationとした。また、「N以外はVした」には「NはVしなかった」というGCIがあるため、Hの解釈によっては判断が揺れる。</t>
-    <rPh sb="15" eb="17">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュウショク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>セワ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>コウイ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>カイシャク</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>ユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「〜以外に、〜であるようなNが存在する」との言い換え。ただし、Nが何であるかは文脈によって変わる。</t>
   </si>
   <si>
@@ -5428,40 +5353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>条件文内の「さえ」は「極限」の読みよりむしろ「限定」の読みがしやすい。「極限」に解釈できれば判断はyes。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キョクゲン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キョクゲン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カイシャク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>《「さえ」と「まで」の言い換え》</t>
     <rPh sb="11" eb="12">
       <t>イ</t>
@@ -6167,16 +6058,6 @@
     <t>花子はスーザンからは返事をもらった。</t>
   </si>
   <si>
-    <t>花子はスーザンからは返事をもらった。</t>
-    <rPh sb="0" eb="2">
-      <t>ハナコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>太郎はロンドンで観光をした。</t>
   </si>
   <si>
@@ -7068,25 +6949,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>太郎の結婚式には、招待客が五人も来ていなかった。</t>
-    <rPh sb="0" eb="2">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ケッコンシキ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ショウタイキャク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゴニン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今日のライブには、観客が十人もいなかった。</t>
     <rPh sb="0" eb="2">
       <t>キョウ</t>
@@ -7132,28 +6994,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>太郎の結婚式に来ていなかった招待客が五人いる。</t>
-    <rPh sb="0" eb="2">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ケッコンシキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ショウタイキャク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>花子は「今日のライブには、観客が百人もいた」と言った。</t>
     <rPh sb="0" eb="2">
       <t>ハナコ</t>
@@ -7220,62 +7060,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>花子は「太郎の結婚式には、招待客が五人も来ていなかった」と言った。</t>
-    <rPh sb="0" eb="2">
-      <t>ハナコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ケッコンシキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キャク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゴニン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花子は、太郎の結婚式に来ていなかった招待客の数が多いと思っている。</t>
-    <rPh sb="0" eb="2">
-      <t>ハナコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ケッコンシキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ショウタイキャク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>花子は「今日のライブには、観客が十人もいなかった」と言った。</t>
     <rPh sb="0" eb="2">
       <t>ハナコ</t>
@@ -7561,91 +7345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>太郎は車を二台も持っていない。</t>
-    <rPh sb="0" eb="2">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クルマ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>太郎が持っている車の数は二台未満だ。</t>
-    <rPh sb="0" eb="2">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クルマ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニダイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花子は「太郎は車を二台も持っていない」と言った。</t>
-    <rPh sb="0" eb="2">
-      <t>ハナコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>クルマ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニダイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花子は、太郎が持っている車の数が少ないと思っている。</t>
-    <rPh sb="0" eb="2">
-      <t>ハナコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>クルマ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>yes</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7706,6 +7405,558 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生が一人も来ない。</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来ない学生が一人いる。</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒトリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPIと解釈される「一人も」。</t>
+    <rPh sb="4" eb="6">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒトリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は車を一台も持っていない。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来る学生がいない。</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎が持っていない車が一台ある。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は車を持っていない。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は授業を三回も休んでいない。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は「太郎は授業を三回も休んでいない」と言った。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は、太郎が休んだ授業の回数が少ないと思っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎が休んだ授業の回数は三回だ。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引越しの荷物が五つも届いていない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>届いていない引越しの荷物が五つある。</t>
+    <rPh sb="0" eb="1">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒッコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は「引越しの荷物が五つも届いていない」と言った。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子は、届いていない引越しの荷物の数が多いと思っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒッコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPIと解釈される「一人も」。「一人も＞否定」の解釈はかなり困難。</t>
+    <rPh sb="4" eb="6">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コンナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り立て詞の除去：も。参考：菊池康人 (2003) 「現代語の極限のとりたて」、沼田善子、野田尚史（編）『日本語のとりたて』pp.85-105、くろしお出版。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヤスヒト</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ゲンダイゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョクゲン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヌマタ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヨシコ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ノダ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナオシ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>シュッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「〜の他に、〜であるようなNが存在する」との言い換え。ただし、Nが何であるかは文脈によって変わる。ここでは「雨が降るというのは、出来事である」という前提をaccomodateすると考え、inference_typeをpresupposition accomodationとした。
+参考：菊池康人 (2003) 「現代語の極限のとりたて」、沼田善子、野田尚史（編）『日本語のとりたて』pp.85-105、くろしお出版。</t>
+    <rPh sb="3" eb="4">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「〜以外に、〜であるようなNが存在する」との言い換え。ただし、Nが何であるかは文脈によって変わる。ここでは「雨が降るというのは、出来事である」という前提をaccomodateすると考え、inference_typeをpresupposition accomodationとした。また、「N以外はVした」には「NはVしなかった」というGCIがあるため、Hの解釈によっては判断が揺れる。
+参考：菊池康人 (2003) 「現代語の極限のとりたて」、沼田善子、野田尚史（編）『日本語のとりたて』pp.85-105、くろしお出版。</t>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>デキゴト</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り立て詞の除去：も。参考：菊池康人 (2003) 「現代語の極限のとりたて」、沼田善子、野田尚史（編）『日本語のとりたて』pp.85-105、くろしお出版。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「〜の他に、〜であるようなNが存在する」との言い換え。ただし、Nが何であるかは文脈によって変わる。ここでは「就職を世話するというのは、行為である」という前提をaccomodateすると考え、inference_typeをpresupposition accomodationとした。
+参考：菊池康人 (2003) 「現代語の極限のとりたて」、沼田善子、野田尚史（編）『日本語のとりたて』pp.85-105、くろしお出版。</t>
+    <rPh sb="3" eb="4">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セワ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「〜以外に、〜であるようなNが存在する」との言い換え。ただし、Nが何であるかは文脈によって変わる。ここでは「就職を世話するのは行為である」という前提をaccomodateすると考え、inference_typeをpresupposition accomodationとした。また、「N以外はVした」には「NはVしなかった」というGCIがあるため、Hの解釈によっては判断が揺れる。
+参考：菊池康人 (2003) 「現代語の極限のとりたて」、沼田善子、野田尚史（編）『日本語のとりたて』pp.85-105、くろしお出版。</t>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セワ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池 (1999)の「十分条件性の強調」。条件文内の「さえ」は「極限」の読みよりむしろ「限定」の読みがしやすい。「極限」に解釈できれば判断はyes。
+参考：菊池康人 (1999) 「サエとデサエ」『日本語科学』6、pp.7-31、国立国語研究所。</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョクゲン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キョクゲン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヤスヒト</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>カガク</t>
+    </rPh>
+    <rPh sb="115" eb="119">
+      <t>コクリツコクゴ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>ケンキュウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toritate, -wa (toritate particle)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎は結婚式に友人を十人は招待した。</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケッコンシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウジン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュウニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子はスーザンから返事をもらった。</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7800,8 +8051,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="841">
+  <cellStyleXfs count="871">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8679,7 +8960,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="841">
+  <cellStyles count="871">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -9100,6 +9381,21 @@
     <cellStyle name="ハイパーリンク" xfId="835" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="837" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="869" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9521,6 +9817,21 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="836" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="838" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="870" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9849,11 +10160,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K380"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A378" sqref="A378"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -11987,7 +12298,7 @@
         <v>196</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>201</v>
@@ -12840,7 +13151,7 @@
     </row>
     <row r="133" spans="1:8" ht="50">
       <c r="A133" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>277</v>
@@ -12860,7 +13171,7 @@
     </row>
     <row r="134" spans="1:8" ht="35">
       <c r="A134" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>277</v>
@@ -12880,7 +13191,7 @@
     </row>
     <row r="135" spans="1:8" ht="50">
       <c r="A135" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>277</v>
@@ -12900,7 +13211,7 @@
     </row>
     <row r="136" spans="1:8" ht="50">
       <c r="A136" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>277</v>
@@ -12920,7 +13231,7 @@
     </row>
     <row r="137" spans="1:8" ht="35">
       <c r="A137" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>277</v>
@@ -12940,7 +13251,7 @@
     </row>
     <row r="138" spans="1:8" ht="50">
       <c r="A138" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>277</v>
@@ -13098,13 +13409,13 @@
         <v>276</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>326</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="65">
@@ -13506,13 +13817,13 @@
         <v>276</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>326</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="50">
@@ -13647,13 +13958,13 @@
         <v>276</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>326</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="65">
@@ -14052,7 +14363,7 @@
         <v>13</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>201</v>
@@ -14072,7 +14383,7 @@
         <v>219</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>201</v>
@@ -14092,16 +14403,16 @@
         <v>219</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="35">
@@ -14112,16 +14423,16 @@
         <v>219</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="35">
@@ -14189,7 +14500,7 @@
         <v>373</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>357</v>
@@ -14595,10 +14906,10 @@
         <v>413</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="80">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="125">
       <c r="A212" s="5" t="s">
         <v>411</v>
       </c>
@@ -14615,13 +14926,13 @@
         <v>412</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="110">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="155">
       <c r="A213" s="5" t="s">
         <v>411</v>
       </c>
@@ -14641,7 +14952,7 @@
         <v>414</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>498</v>
+        <v>740</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="50">
@@ -14664,10 +14975,10 @@
         <v>416</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="80">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="125">
       <c r="A215" s="5" t="s">
         <v>411</v>
       </c>
@@ -14684,13 +14995,13 @@
         <v>415</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="110">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="155">
       <c r="A216" s="5" t="s">
         <v>411</v>
       </c>
@@ -14710,87 +15021,87 @@
         <v>417</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>503</v>
+        <v>743</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="35">
       <c r="A217" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="35">
       <c r="A218" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="219" spans="1:8" s="9" customFormat="1" ht="35">
       <c r="A219" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="C219" s="9" t="s">
-        <v>574</v>
-      </c>
       <c r="D219" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:8" s="9" customFormat="1" ht="35">
       <c r="A220" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>219</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E220" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="35">
@@ -14916,7 +15227,7 @@
         <v>13</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>204</v>
@@ -14939,7 +15250,7 @@
         <v>13</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>204</v>
@@ -14962,7 +15273,7 @@
         <v>13</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>204</v>
@@ -14985,7 +15296,7 @@
         <v>13</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>204</v>
@@ -15008,7 +15319,7 @@
         <v>13</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>204</v>
@@ -15031,7 +15342,7 @@
         <v>388</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>405</v>
@@ -15043,7 +15354,7 @@
         <v>404</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="110">
@@ -15054,7 +15365,7 @@
         <v>388</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>405</v>
@@ -15066,7 +15377,7 @@
         <v>407</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="110">
@@ -15077,7 +15388,7 @@
         <v>388</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>405</v>
@@ -15089,7 +15400,7 @@
         <v>408</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="110">
@@ -15100,7 +15411,7 @@
         <v>388</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>405</v>
@@ -15112,7 +15423,7 @@
         <v>409</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="110">
@@ -15123,7 +15434,7 @@
         <v>388</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>405</v>
@@ -15135,7 +15446,7 @@
         <v>410</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="35">
@@ -15143,22 +15454,22 @@
         <v>418</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="35">
@@ -15166,22 +15477,22 @@
         <v>418</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="H237" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="35">
@@ -15189,22 +15500,22 @@
         <v>418</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F238" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H238" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="50">
@@ -15215,10 +15526,10 @@
         <v>388</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>427</v>
@@ -15238,7 +15549,7 @@
         <v>13</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>204</v>
@@ -15247,10 +15558,10 @@
         <v>427</v>
       </c>
       <c r="G240" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H240" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="110">
@@ -15261,7 +15572,7 @@
         <v>428</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>405</v>
@@ -15273,7 +15584,7 @@
         <v>414</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="50">
@@ -15284,7 +15595,7 @@
         <v>388</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>390</v>
@@ -15307,7 +15618,7 @@
         <v>13</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>204</v>
@@ -15316,10 +15627,10 @@
         <v>429</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="110">
@@ -15330,7 +15641,7 @@
         <v>388</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>405</v>
@@ -15342,87 +15653,87 @@
         <v>417</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="35">
       <c r="A245" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="35">
       <c r="A246" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="247" spans="1:8" s="9" customFormat="1" ht="35">
       <c r="A247" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E247" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:8" s="9" customFormat="1" ht="35">
       <c r="A248" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>219</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E248" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G248" s="9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="35">
@@ -15433,7 +15744,7 @@
         <v>388</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>390</v>
@@ -15456,7 +15767,7 @@
         <v>388</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>390</v>
@@ -15479,7 +15790,7 @@
         <v>388</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>390</v>
@@ -15502,7 +15813,7 @@
         <v>388</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>390</v>
@@ -15525,7 +15836,7 @@
         <v>388</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>390</v>
@@ -15542,13 +15853,13 @@
     </row>
     <row r="254" spans="1:8" ht="80">
       <c r="A254" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>204</v>
@@ -15565,19 +15876,19 @@
     </row>
     <row r="255" spans="1:8" ht="80">
       <c r="A255" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>485</v>
@@ -15588,13 +15899,13 @@
     </row>
     <row r="256" spans="1:8" ht="80">
       <c r="A256" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>204</v>
@@ -15611,13 +15922,13 @@
     </row>
     <row r="257" spans="1:8" ht="80">
       <c r="A257" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>204</v>
@@ -15634,13 +15945,13 @@
     </row>
     <row r="258" spans="1:8" ht="80">
       <c r="A258" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>204</v>
@@ -15663,7 +15974,7 @@
         <v>388</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>405</v>
@@ -15675,7 +15986,7 @@
         <v>404</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="110">
@@ -15686,7 +15997,7 @@
         <v>388</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>405</v>
@@ -15698,7 +16009,7 @@
         <v>407</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="110">
@@ -15709,7 +16020,7 @@
         <v>388</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>405</v>
@@ -15721,7 +16032,7 @@
         <v>408</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="110">
@@ -15732,7 +16043,7 @@
         <v>388</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>405</v>
@@ -15744,7 +16055,7 @@
         <v>409</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="110">
@@ -15755,7 +16066,7 @@
         <v>388</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>405</v>
@@ -15767,76 +16078,76 @@
         <v>410</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="35">
       <c r="A264" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="35">
       <c r="A265" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G265" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="H265" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="35">
       <c r="A266" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G266" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H266" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="H266" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="50">
@@ -15847,7 +16158,7 @@
         <v>388</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>390</v>
@@ -15870,7 +16181,7 @@
         <v>13</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>204</v>
@@ -15879,10 +16190,10 @@
         <v>439</v>
       </c>
       <c r="G268" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H268" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="H268" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="110">
@@ -15893,7 +16204,7 @@
         <v>388</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>405</v>
@@ -15905,7 +16216,7 @@
         <v>414</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="50">
@@ -15916,7 +16227,7 @@
         <v>388</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>390</v>
@@ -15939,7 +16250,7 @@
         <v>13</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>204</v>
@@ -15948,10 +16259,10 @@
         <v>440</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="50">
@@ -15962,7 +16273,7 @@
         <v>388</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>405</v>
@@ -15974,87 +16285,87 @@
         <v>417</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="35">
       <c r="A273" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="35">
       <c r="A274" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8" s="9" customFormat="1" ht="35">
       <c r="A275" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E275" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="276" spans="1:8" s="9" customFormat="1" ht="35">
       <c r="A276" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>219</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E276" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="35">
@@ -16065,7 +16376,7 @@
         <v>388</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>390</v>
@@ -16088,7 +16399,7 @@
         <v>388</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>390</v>
@@ -16111,7 +16422,7 @@
         <v>388</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>390</v>
@@ -16134,7 +16445,7 @@
         <v>388</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>390</v>
@@ -16151,13 +16462,13 @@
     </row>
     <row r="281" spans="1:8" ht="80">
       <c r="A281" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>204</v>
@@ -16174,13 +16485,13 @@
     </row>
     <row r="282" spans="1:8" ht="80">
       <c r="A282" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>204</v>
@@ -16197,13 +16508,13 @@
     </row>
     <row r="283" spans="1:8" ht="80">
       <c r="A283" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>204</v>
@@ -16220,13 +16531,13 @@
     </row>
     <row r="284" spans="1:8" ht="80">
       <c r="A284" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>204</v>
@@ -16243,19 +16554,19 @@
     </row>
     <row r="285" spans="1:8" ht="80">
       <c r="A285" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>488</v>
@@ -16272,7 +16583,7 @@
         <v>388</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>405</v>
@@ -16284,7 +16595,7 @@
         <v>404</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="110">
@@ -16295,7 +16606,7 @@
         <v>388</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>405</v>
@@ -16307,7 +16618,7 @@
         <v>407</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="110">
@@ -16318,7 +16629,7 @@
         <v>388</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>405</v>
@@ -16330,7 +16641,7 @@
         <v>408</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="110">
@@ -16341,7 +16652,7 @@
         <v>388</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>405</v>
@@ -16353,76 +16664,76 @@
         <v>409</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="35">
       <c r="A290" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="35">
       <c r="A291" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C291" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G291" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="H291" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="35">
       <c r="A292" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="50">
@@ -16433,7 +16744,7 @@
         <v>388</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>390</v>
@@ -16456,7 +16767,7 @@
         <v>13</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>204</v>
@@ -16465,10 +16776,10 @@
         <v>448</v>
       </c>
       <c r="G294" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H294" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="H294" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="110">
@@ -16479,7 +16790,7 @@
         <v>388</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>405</v>
@@ -16491,7 +16802,7 @@
         <v>414</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="50">
@@ -16502,7 +16813,7 @@
         <v>388</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>390</v>
@@ -16525,7 +16836,7 @@
         <v>13</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>204</v>
@@ -16534,10 +16845,10 @@
         <v>449</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="110">
@@ -16548,7 +16859,7 @@
         <v>388</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>405</v>
@@ -16560,416 +16871,416 @@
         <v>417</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="35">
       <c r="A299" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="35">
       <c r="A300" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="301" spans="1:8" s="9" customFormat="1" ht="35">
       <c r="A301" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E301" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F301" s="9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G301" s="9" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="9" customFormat="1" ht="35">
       <c r="A302" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C302" s="9" t="s">
         <v>219</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E302" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F302" s="9" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G302" s="9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="50">
       <c r="A303" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>419</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="50">
       <c r="A304" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="F304" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="50">
       <c r="A305" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E305" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>422</v>
       </c>
       <c r="G305" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="80">
+      <c r="A306" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="80">
+      <c r="A307" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="80">
+      <c r="A308" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" ht="50">
-      <c r="A306" s="5" t="s">
+      <c r="D308" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F306" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G306" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="H306" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="50">
-      <c r="A307" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G307" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H307" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="50">
-      <c r="A308" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="F308" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>533</v>
+        <v>744</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="50">
       <c r="A309" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>419</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="50">
       <c r="A310" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C310" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="50">
       <c r="A311" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>422</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" ht="50">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="80">
       <c r="A312" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="80">
+      <c r="A313" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G313" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H312" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="50">
-      <c r="A313" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G313" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="H313" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="50">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="80">
       <c r="A314" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>533</v>
+        <v>744</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="50">
       <c r="A315" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="50">
       <c r="A316" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C316" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="50">
       <c r="A317" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="50">
       <c r="A318" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C318" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>8</v>
@@ -16978,44 +17289,44 @@
         <v>337</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="35">
       <c r="A319" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="50">
       <c r="A320" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C320" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>8</v>
@@ -17024,21 +17335,21 @@
         <v>338</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="50">
       <c r="A321" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C321" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>8</v>
@@ -17047,21 +17358,21 @@
         <v>339</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>604</v>
+        <v>748</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="35">
       <c r="A322" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C322" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>8</v>
@@ -17070,18 +17381,18 @@
         <v>340</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="50">
       <c r="A323" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>254</v>
@@ -17093,18 +17404,18 @@
         <v>319</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="35">
       <c r="A324" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>254</v>
@@ -17113,21 +17424,21 @@
         <v>8</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="50">
       <c r="A325" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>254</v>
@@ -17139,18 +17450,18 @@
         <v>321</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="65">
       <c r="A326" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>254</v>
@@ -17162,18 +17473,18 @@
         <v>322</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>604</v>
+        <v>748</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="35">
       <c r="A327" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>254</v>
@@ -17185,18 +17496,18 @@
         <v>323</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="50">
       <c r="A328" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>254</v>
@@ -17208,21 +17519,21 @@
         <v>324</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="50">
       <c r="A329" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>8</v>
@@ -17231,44 +17542,44 @@
         <v>332</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="35">
       <c r="A330" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="50">
       <c r="A331" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>8</v>
@@ -17277,21 +17588,21 @@
         <v>333</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H331" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="50">
       <c r="A332" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>8</v>
@@ -17300,21 +17611,21 @@
         <v>334</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H332" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="35">
       <c r="A333" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>8</v>
@@ -17323,10 +17634,10 @@
         <v>335</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H333" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="50">
@@ -17346,7 +17657,7 @@
         <v>274</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="35">
@@ -17366,7 +17677,7 @@
         <v>278</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="50">
@@ -17386,7 +17697,7 @@
         <v>280</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="50">
@@ -17406,7 +17717,7 @@
         <v>282</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="35">
@@ -17426,7 +17737,7 @@
         <v>284</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="50">
@@ -17446,878 +17757,1061 @@
         <v>286</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="95">
       <c r="A340" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G340" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H340" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="95">
       <c r="A341" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="95">
       <c r="A342" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G342" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H342" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="95">
       <c r="A343" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F343" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H343" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="G343" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="H343" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="80">
       <c r="A344" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="80">
       <c r="A345" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H345" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="80">
       <c r="A346" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="80">
       <c r="A347" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="50">
       <c r="A348" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="349" spans="1:8" ht="50">
       <c r="A349" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F349" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G349" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="H349" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="50">
       <c r="A350" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="50">
       <c r="A351" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="50">
       <c r="A352" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="50">
       <c r="A353" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="50">
       <c r="A354" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="65">
       <c r="A355" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G355" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H355" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="H355" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="65">
       <c r="A356" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="65">
       <c r="A357" s="5" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="65">
       <c r="A358" s="5" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="65">
       <c r="A359" s="5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="50">
       <c r="A360" s="5" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="65">
       <c r="A361" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H361" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="H361" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="50">
       <c r="A362" s="5" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>724</v>
+        <v>711</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="65">
       <c r="A363" s="5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="50">
       <c r="A364" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F364" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C364" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="G364" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="65">
       <c r="A365" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H365" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G365" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="H365" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="50">
       <c r="A366" s="5" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>724</v>
+        <v>711</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="50">
       <c r="A367" s="5" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>721</v>
+        <v>708</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="50">
       <c r="A368" s="5" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>721</v>
+        <v>708</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="50">
       <c r="A369" s="5" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>721</v>
+        <v>708</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="65">
       <c r="A370" s="5" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="G370" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="50">
+      <c r="A371" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H371" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="H370" s="1" t="s">
+    </row>
+    <row r="372" spans="1:8" ht="50">
+      <c r="A372" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="50">
+      <c r="A373" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G373" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" ht="35">
-      <c r="A371" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="H371" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" ht="35">
-      <c r="A372" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G372" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="H372" s="1" t="s">
+      <c r="H373" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="35">
-      <c r="A373" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F373" s="1" t="s">
+    <row r="374" spans="1:8" ht="50">
+      <c r="A374" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="50">
+      <c r="A375" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F375" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="G373" s="1" t="s">
+      <c r="G375" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="H373" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" ht="35">
-      <c r="A374" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G374" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="35">
-      <c r="A375" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G375" s="1" t="s">
-        <v>711</v>
-      </c>
       <c r="H375" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="50">
       <c r="A376" s="5" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>721</v>
+        <v>708</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="65">
       <c r="A377" s="5" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C377" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="50">
+      <c r="A378" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="50">
+      <c r="A379" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="50">
+      <c r="A380" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="50">
+      <c r="A381" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D381" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="50">
+      <c r="A382" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B382" s="5"/>
+      <c r="C382" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="50">
+      <c r="A383" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F383" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F377" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G377" s="1" t="s">
+      <c r="G383" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="50">
+      <c r="A384" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B384" s="5"/>
+      <c r="C384" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="H377" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" ht="35">
-      <c r="A378" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D378" s="2" t="s">
+      <c r="E384" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F384" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F378" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G378" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="H378" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" ht="35">
-      <c r="A379" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F379" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="G379" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" ht="35">
-      <c r="A380" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G380" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="H380" s="1" t="s">
-        <v>703</v>
+      <c r="G384" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="35">
+      <c r="A385" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
